--- a/int_sum.xlsx
+++ b/int_sum.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
   <si>
     <t>bk</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>Closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2X0XX1506300 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2X0XX1506200 </t>
   </si>
 </sst>
 </file>
@@ -885,10 +891,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1304,7 +1310,7 @@
         <v>41897</v>
       </c>
       <c r="H15" s="9">
-        <f t="shared" ref="H15:H16" si="1">B15*1000+F15</f>
+        <f t="shared" ref="H15:H17" si="1">B15*1000+F15</f>
         <v>152038.35616438356</v>
       </c>
       <c r="I15" s="7" t="s">
@@ -1332,7 +1338,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" ref="F16" si="2">B16*1000*(D16/100)*E16/365</f>
+        <f t="shared" ref="F16:F18" si="2">B16*1000*(D16/100)*E16/365</f>
         <v>693.56164383561645</v>
       </c>
       <c r="G16" s="5">
@@ -1350,47 +1356,112 @@
         <v>693.56164383561554</v>
       </c>
     </row>
-    <row r="17" spans="3:10" s="4" customFormat="1">
-      <c r="F17" s="6"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="3:10" s="4" customFormat="1">
-      <c r="C18" s="5"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="3:10" s="4" customFormat="1">
+    <row r="17" spans="1:10" s="4" customFormat="1">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4">
+        <v>75</v>
+      </c>
+      <c r="C17" s="5">
+        <v>41850</v>
+      </c>
+      <c r="D17" s="4">
+        <v>6.25</v>
+      </c>
+      <c r="E17" s="4">
+        <v>46</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>41850</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" ref="H17:H18" si="3">B17*1000+F17</f>
+        <v>75000</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="9">
+        <f>H17-B17*1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="4" customFormat="1">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>75</v>
+      </c>
+      <c r="C18" s="5">
+        <v>41850</v>
+      </c>
+      <c r="D18" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E18" s="4">
+        <v>61</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="2"/>
+        <v>1040.3424657534247</v>
+      </c>
+      <c r="G18" s="5">
+        <v>41911</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" si="3"/>
+        <v>76040.34246575342</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="9">
+        <f>H18-B18*1000</f>
+        <v>1040.3424657534197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="4" customFormat="1">
+      <c r="C19" s="5"/>
       <c r="F19" s="6"/>
-      <c r="J19" s="11">
-        <f>SUM(J3:J16)</f>
-        <v>5696.8082191780777</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" s="4" customFormat="1">
+      <c r="G19" s="5"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10" s="4" customFormat="1">
       <c r="F20" s="6"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="3:10" s="4" customFormat="1">
+      <c r="J20" s="11">
+        <f>SUM(J3:J18)</f>
+        <v>6737.1506849314974</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="4" customFormat="1">
       <c r="F21" s="6"/>
-      <c r="I21" s="4" t="s">
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" s="4" customFormat="1">
+      <c r="F22" s="6"/>
+      <c r="I22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J22" s="9">
         <v>686</v>
       </c>
     </row>
-    <row r="22" spans="3:10" s="4" customFormat="1">
-      <c r="F22" s="6"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="3:10" s="4" customFormat="1">
+    <row r="23" spans="1:10" s="4" customFormat="1">
       <c r="F23" s="6"/>
-      <c r="J23" s="11">
-        <f>J19+J21*2</f>
-        <v>7068.8082191780777</v>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" s="4" customFormat="1">
+      <c r="F24" s="6"/>
+      <c r="J24" s="11">
+        <f>J20+J22*2</f>
+        <v>8109.1506849314974</v>
       </c>
     </row>
   </sheetData>

--- a/int_sum.xlsx
+++ b/int_sum.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
   <si>
     <t>bk</t>
   </si>
@@ -124,6 +124,18 @@
   </si>
   <si>
     <t xml:space="preserve">2X0XX1506200 </t>
+  </si>
+  <si>
+    <t>Uptd</t>
+  </si>
+  <si>
+    <t>INT 2014 HY-1</t>
+  </si>
+  <si>
+    <t>2X0XX1506400</t>
+  </si>
+  <si>
+    <t>0X0XX8501200</t>
   </si>
 </sst>
 </file>
@@ -167,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -200,6 +212,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -496,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -858,29 +873,64 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="C14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="J15" s="3">
-        <f>SUM(J3:J12)</f>
-        <v>6175</v>
-      </c>
-    </row>
-    <row r="17" spans="9:10">
-      <c r="I17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="8">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="19" spans="9:10">
-      <c r="J19" s="3">
-        <f>J15+J17*2</f>
-        <v>9049</v>
+      <c r="A14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="4">
+        <v>100000</v>
+      </c>
+      <c r="C14" s="5">
+        <v>41925</v>
+      </c>
+      <c r="D14" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E14" s="4">
+        <v>61</v>
+      </c>
+      <c r="F14" s="6">
+        <f>((B14*(D14/100))/365)*E14</f>
+        <v>1387.1232876712329</v>
+      </c>
+      <c r="G14" s="5">
+        <v>41986</v>
+      </c>
+      <c r="H14" s="8">
+        <v>101387</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="8">
+        <f>H14-B14</f>
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="J16" s="3">
+        <f>SUM(J3:J14)</f>
+        <v>7562</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="F18" s="8"/>
+      <c r="I18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="8">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="12">
+        <v>41863</v>
+      </c>
+      <c r="J20" s="3">
+        <f>J16+J18*2</f>
+        <v>8160</v>
       </c>
     </row>
   </sheetData>
@@ -891,10 +941,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1244,47 +1294,47 @@
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:13" s="4" customFormat="1">
-      <c r="C13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:13" s="4" customFormat="1">
-      <c r="A14" s="4" t="s">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B13" s="4">
         <v>70</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C13" s="5">
         <v>41802</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D13" s="4">
         <v>8</v>
       </c>
-      <c r="E14" s="4">
-        <v>61</v>
-      </c>
-      <c r="F14" s="6">
-        <f>B14*1000*(D14/100)*E14/365</f>
+      <c r="E13" s="4">
+        <v>61</v>
+      </c>
+      <c r="F13" s="6">
+        <f>B13*1000*(D13/100)*E13/365</f>
         <v>935.89041095890411</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G13" s="5">
         <v>41863</v>
       </c>
-      <c r="H14" s="9">
-        <f>B14*1000+F14</f>
+      <c r="H13" s="9">
+        <f>B13*1000+F13</f>
         <v>70935.890410958906</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J13" s="9">
         <f t="shared" si="0"/>
         <v>935.8904109589057</v>
       </c>
+    </row>
+    <row r="14" spans="1:13" s="4" customFormat="1">
+      <c r="C14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:13" s="4" customFormat="1">
       <c r="A15" s="4" t="s">
@@ -1310,7 +1360,7 @@
         <v>41897</v>
       </c>
       <c r="H15" s="9">
-        <f t="shared" ref="H15:H17" si="1">B15*1000+F15</f>
+        <f t="shared" ref="H15:H16" si="1">B15*1000+F15</f>
         <v>152038.35616438356</v>
       </c>
       <c r="I15" s="7" t="s">
@@ -1338,7 +1388,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" ref="F16:F18" si="2">B16*1000*(D16/100)*E16/365</f>
+        <f t="shared" ref="F16:F20" si="2">B16*1000*(D16/100)*E16/365</f>
         <v>693.56164383561645</v>
       </c>
       <c r="G16" s="5">
@@ -1379,7 +1429,7 @@
         <v>41850</v>
       </c>
       <c r="H17" s="9">
-        <f t="shared" ref="H17:H18" si="3">B17*1000+F17</f>
+        <f t="shared" ref="H17:H20" si="3">B17*1000+F17</f>
         <v>75000</v>
       </c>
       <c r="I17" s="7" t="s">
@@ -1429,28 +1479,58 @@
       <c r="C19" s="5"/>
       <c r="F19" s="6"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="8"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="7"/>
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1">
-      <c r="F20" s="6"/>
-      <c r="J20" s="11">
-        <f>SUM(J3:J18)</f>
-        <v>6737.1506849314974</v>
+      <c r="A20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4">
+        <v>80</v>
+      </c>
+      <c r="C20" s="5">
+        <v>41925</v>
+      </c>
+      <c r="D20" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E20" s="4">
+        <v>61</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="2"/>
+        <v>1109.6986301369864</v>
+      </c>
+      <c r="G20" s="5">
+        <v>41986</v>
+      </c>
+      <c r="H20" s="9">
+        <f t="shared" si="3"/>
+        <v>81109.698630136991</v>
+      </c>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="9">
+        <f>H20-B20*1000</f>
+        <v>1109.6986301369907</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1">
+      <c r="C21" s="5"/>
       <c r="F21" s="6"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="7"/>
       <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1">
       <c r="F22" s="6"/>
-      <c r="I22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="9">
-        <v>686</v>
+      <c r="J22" s="11">
+        <f>SUM(J3:J20)</f>
+        <v>7846.8493150684881</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="4" customFormat="1">
@@ -1459,9 +1539,22 @@
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1">
       <c r="F24" s="6"/>
-      <c r="J24" s="11">
-        <f>J20+J22*2</f>
-        <v>8109.1506849314974</v>
+      <c r="I24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="9">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="4" customFormat="1">
+      <c r="F25" s="6"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="1:10" s="4" customFormat="1">
+      <c r="F26" s="6"/>
+      <c r="J26" s="11">
+        <f>J22 + J24*2</f>
+        <v>10182.849315068488</v>
       </c>
     </row>
   </sheetData>

--- a/int_sum.xlsx
+++ b/int_sum.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="14895" windowHeight="7875" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="270" windowWidth="14895" windowHeight="7875" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CT-IP" sheetId="1" r:id="rId1"/>
     <sheet name="CT-NL" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="ICICI" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="43">
   <si>
     <t>bk</t>
   </si>
@@ -136,6 +136,15 @@
   </si>
   <si>
     <t>0X0XX8501200</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>INT 2013 QT-1</t>
+  </si>
+  <si>
+    <t>Monthly</t>
   </si>
 </sst>
 </file>
@@ -943,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1564,12 +1573,147 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4">
+        <v>390</v>
+      </c>
+      <c r="F3" s="4">
+        <v>5000</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4">
+        <f>F3</f>
+        <v>5000</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="4">
+        <v>744</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="J7" s="1">
+        <f>J3 + J5 * 4</f>
+        <v>7976</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/int_sum.xlsx
+++ b/int_sum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="14895" windowHeight="7875" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="270" windowWidth="14895" windowHeight="7875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CT-IP" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="45">
   <si>
     <t>bk</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>Monthly</t>
+  </si>
+  <si>
+    <t>2X0XX1506500</t>
+  </si>
+  <si>
+    <t>2X0XX1506600</t>
   </si>
 </sst>
 </file>
@@ -523,7 +529,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -935,7 +941,7 @@
         <v>36</v>
       </c>
       <c r="B20" s="12">
-        <v>41863</v>
+        <v>41925</v>
       </c>
       <c r="J20" s="3">
         <f>J16+J18*2</f>
@@ -950,10 +956,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1397,7 +1403,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" ref="F16:F20" si="2">B16*1000*(D16/100)*E16/365</f>
+        <f t="shared" ref="F16:F22" si="2">B16*1000*(D16/100)*E16/365</f>
         <v>693.56164383561645</v>
       </c>
       <c r="G16" s="5">
@@ -1438,7 +1444,7 @@
         <v>41850</v>
       </c>
       <c r="H17" s="9">
-        <f t="shared" ref="H17:H20" si="3">B17*1000+F17</f>
+        <f t="shared" ref="H17:H22" si="3">B17*1000+F17</f>
         <v>75000</v>
       </c>
       <c r="I17" s="7" t="s">
@@ -1528,31 +1534,88 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1">
-      <c r="C21" s="5"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="9"/>
+      <c r="A21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="4">
+        <v>25</v>
+      </c>
+      <c r="C21" s="5">
+        <v>41925</v>
+      </c>
+      <c r="D21" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E21" s="4">
+        <v>61</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="2"/>
+        <v>346.78082191780823</v>
+      </c>
+      <c r="G21" s="5">
+        <v>41986</v>
+      </c>
+      <c r="H21" s="9">
+        <f t="shared" si="3"/>
+        <v>25346.780821917808</v>
+      </c>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="9">
+        <f t="shared" ref="J21:J22" si="4">H21-B21*1000</f>
+        <v>346.78082191780777</v>
+      </c>
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1">
-      <c r="F22" s="6"/>
-      <c r="J22" s="11">
-        <f>SUM(J3:J20)</f>
-        <v>7846.8493150684881</v>
+      <c r="A22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="4">
+        <v>200</v>
+      </c>
+      <c r="C22" s="5">
+        <v>41925</v>
+      </c>
+      <c r="D22" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E22" s="4">
+        <v>61</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="2"/>
+        <v>2774.2465753424658</v>
+      </c>
+      <c r="G22" s="5">
+        <v>41986</v>
+      </c>
+      <c r="H22" s="9">
+        <f t="shared" si="3"/>
+        <v>202774.24657534246</v>
+      </c>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="9">
+        <f t="shared" si="4"/>
+        <v>2774.2465753424622</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="4" customFormat="1">
+      <c r="C23" s="5"/>
       <c r="F23" s="6"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="7"/>
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1">
       <c r="F24" s="6"/>
-      <c r="I24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="9">
-        <v>1168</v>
+      <c r="J24" s="11">
+        <f>SUM(J3:J22)</f>
+        <v>10967.876712328758</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1">
@@ -1561,9 +1624,22 @@
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1">
       <c r="F26" s="6"/>
-      <c r="J26" s="11">
-        <f>J22 + J24*2</f>
-        <v>10182.849315068488</v>
+      <c r="I26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="9">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="4" customFormat="1">
+      <c r="F27" s="6"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="1:10" s="4" customFormat="1">
+      <c r="F28" s="6"/>
+      <c r="J28" s="11">
+        <f>J24 + J26*2</f>
+        <v>13303.876712328758</v>
       </c>
     </row>
   </sheetData>
@@ -1575,7 +1651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>

--- a/int_sum.xlsx
+++ b/int_sum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="14895" windowHeight="7875" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="270" windowWidth="14895" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="CT-IP" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
   <si>
     <t>bk</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>2X0XX1506600</t>
+  </si>
+  <si>
+    <t>0X0XX8501300</t>
+  </si>
+  <si>
+    <t>INT 2013 QT-2</t>
   </si>
 </sst>
 </file>
@@ -526,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -921,31 +927,64 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="J16" s="3">
-        <f>SUM(J3:J14)</f>
-        <v>7562</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="F18" s="8"/>
-      <c r="I18" s="4" t="s">
+    <row r="15" spans="1:10">
+      <c r="A15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4">
+        <v>30000</v>
+      </c>
+      <c r="C15" s="5">
+        <v>41975</v>
+      </c>
+      <c r="D15" s="4">
+        <v>7.75</v>
+      </c>
+      <c r="E15" s="4">
+        <v>61</v>
+      </c>
+      <c r="F15" s="6">
+        <v>395</v>
+      </c>
+      <c r="G15" s="5">
+        <v>42037</v>
+      </c>
+      <c r="H15" s="8">
+        <v>30395</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="8">
+        <f>H15-B15</f>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="J17" s="3">
+        <f>SUM(J3:J15)</f>
+        <v>7957</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="F19" s="8"/>
+      <c r="I19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J19" s="8">
         <v>299</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B21" s="12">
         <v>41925</v>
       </c>
-      <c r="J20" s="3">
-        <f>J16+J18*2</f>
-        <v>8160</v>
+      <c r="J21" s="3">
+        <f>J17+J19*2</f>
+        <v>8555</v>
       </c>
     </row>
   </sheetData>
@@ -958,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1649,10 +1688,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1725,22 +1764,31 @@
       <c r="B3" s="4">
         <v>50000</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="5">
+        <v>41925</v>
+      </c>
       <c r="D3" s="4">
         <v>9</v>
       </c>
       <c r="E3" s="4">
         <v>390</v>
       </c>
-      <c r="F3" s="4">
-        <v>5000</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4">
-        <f>F3</f>
-        <v>5000</v>
+      <c r="F3" s="8">
+        <f xml:space="preserve"> ( ( (B3*D3/100) / 365 ) * E3 )</f>
+        <v>4808.2191780821913</v>
+      </c>
+      <c r="G3" s="5">
+        <v>42313</v>
+      </c>
+      <c r="H3" s="8">
+        <f>B3+F3</f>
+        <v>54808.219178082189</v>
+      </c>
+      <c r="I3" s="4">
+        <v>4710071983</v>
+      </c>
+      <c r="J3" s="8">
+        <v>2500</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -1749,43 +1797,187 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="4">
+        <v>25000</v>
+      </c>
+      <c r="C4" s="5">
+        <v>41947</v>
+      </c>
+      <c r="D4" s="4">
+        <v>7.75</v>
+      </c>
+      <c r="E4" s="4">
+        <v>61</v>
+      </c>
+      <c r="F4" s="8">
+        <f xml:space="preserve"> ( ( (B4*D4/100) / 365 ) * E4 )</f>
+        <v>323.80136986301369</v>
+      </c>
+      <c r="G4" s="5">
+        <v>42009</v>
+      </c>
+      <c r="H4" s="8">
+        <f>B4+F4</f>
+        <v>25323.801369863013</v>
+      </c>
+      <c r="I4" s="4">
+        <v>4710072323</v>
+      </c>
+      <c r="J4" s="8">
+        <f>F4</f>
+        <v>323.80136986301369</v>
+      </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="M4" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="4">
-        <v>744</v>
+      <c r="A5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="4">
+        <v>25000</v>
+      </c>
+      <c r="C5" s="5">
+        <v>41975</v>
+      </c>
+      <c r="D5" s="4">
+        <v>8.75</v>
+      </c>
+      <c r="E5" s="4">
+        <v>390</v>
+      </c>
+      <c r="F5" s="8">
+        <f xml:space="preserve"> ( ( (B5*D5/100) / 365 ) * E5 )</f>
+        <v>2337.3287671232879</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="8">
+        <f>B5+F5</f>
+        <v>27337.328767123287</v>
+      </c>
+      <c r="I5" s="4">
+        <v>4713004066</v>
+      </c>
+      <c r="J5" s="8">
+        <f>F5</f>
+        <v>2337.3287671232879</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="M5" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="J7" s="1">
-        <f>J3 + J5 * 4</f>
-        <v>7976</v>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="8">
+        <f>J3+J5</f>
+        <v>4837.3287671232883</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="4">
+        <v>744</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="4">
+        <v>372</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="J12" s="4">
+        <f>J9+J10</f>
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="J14" s="1">
+        <f xml:space="preserve"> J7 + J12*2</f>
+        <v>7069.3287671232883</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="5">
+        <v>41975</v>
       </c>
     </row>
   </sheetData>

--- a/int_sum.xlsx
+++ b/int_sum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="14895" windowHeight="7875"/>
+    <workbookView xWindow="360" yWindow="270" windowWidth="14895" windowHeight="7875" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CT-IP" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -1690,8 +1690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1778,11 +1778,10 @@
         <v>4808.2191780821913</v>
       </c>
       <c r="G3" s="5">
-        <v>42313</v>
+        <v>42315</v>
       </c>
       <c r="H3" s="8">
-        <f>B3+F3</f>
-        <v>54808.219178082189</v>
+        <v>50000</v>
       </c>
       <c r="I3" s="4">
         <v>4710071983</v>
@@ -1820,8 +1819,7 @@
         <v>42009</v>
       </c>
       <c r="H4" s="8">
-        <f>B4+F4</f>
-        <v>25323.801369863013</v>
+        <v>25000</v>
       </c>
       <c r="I4" s="4">
         <v>4710072323</v>
@@ -1853,20 +1851,21 @@
         <v>390</v>
       </c>
       <c r="F5" s="8">
-        <f xml:space="preserve"> ( ( (B5*D5/100) / 365 ) * E5 )</f>
-        <v>2337.3287671232879</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="8">
-        <f>B5+F5</f>
-        <v>27337.328767123287</v>
+        <f>H5-B5</f>
+        <v>2424</v>
+      </c>
+      <c r="G5" s="5">
+        <v>42365</v>
+      </c>
+      <c r="H5" s="9">
+        <v>27424</v>
       </c>
       <c r="I5" s="4">
         <v>4713004066</v>
       </c>
       <c r="J5" s="8">
         <f>F5</f>
-        <v>2337.3287671232879</v>
+        <v>2424</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -1901,7 +1900,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="8">
         <f>J3+J5</f>
-        <v>4837.3287671232883</v>
+        <v>4924</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -1969,7 +1968,7 @@
     <row r="14" spans="1:13">
       <c r="J14" s="1">
         <f xml:space="preserve"> J7 + J12*2</f>
-        <v>7069.3287671232883</v>
+        <v>7156</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1977,7 +1976,7 @@
         <v>36</v>
       </c>
       <c r="B17" s="5">
-        <v>41975</v>
+        <v>41994</v>
       </c>
     </row>
   </sheetData>

--- a/int_sum.xlsx
+++ b/int_sum.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="49">
   <si>
     <t>bk</t>
   </si>
@@ -141,9 +141,6 @@
     <t>IC</t>
   </si>
   <si>
-    <t>INT 2013 QT-1</t>
-  </si>
-  <si>
     <t>Monthly</t>
   </si>
   <si>
@@ -156,7 +153,16 @@
     <t>0X0XX8501300</t>
   </si>
   <si>
-    <t>INT 2013 QT-2</t>
+    <t>0X0XX8501400</t>
+  </si>
+  <si>
+    <t>0X0XX8501500</t>
+  </si>
+  <si>
+    <t>INT 2014 QT-1</t>
+  </si>
+  <si>
+    <t>INT 2014 HY-2</t>
   </si>
 </sst>
 </file>
@@ -532,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -953,38 +959,104 @@
         <v>30395</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J15" s="8">
         <f>H15-B15</f>
         <v>395</v>
       </c>
     </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4">
+        <v>80000</v>
+      </c>
+      <c r="C16" s="5">
+        <v>41992</v>
+      </c>
+      <c r="D16" s="4">
+        <v>7.75</v>
+      </c>
+      <c r="E16" s="4">
+        <v>61</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1138</v>
+      </c>
+      <c r="G16" s="5">
+        <v>42059</v>
+      </c>
+      <c r="H16" s="8">
+        <v>81138</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="8">
+        <f>H16-B16</f>
+        <v>1138</v>
+      </c>
+    </row>
     <row r="17" spans="1:10">
-      <c r="J17" s="3">
-        <f>SUM(J3:J15)</f>
-        <v>7957</v>
+      <c r="A17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="4">
+        <v>20000</v>
+      </c>
+      <c r="C17" s="5">
+        <v>42051</v>
+      </c>
+      <c r="D17" s="4">
+        <v>7.75</v>
+      </c>
+      <c r="E17" s="4">
+        <v>61</v>
+      </c>
+      <c r="F17" s="6">
+        <v>259</v>
+      </c>
+      <c r="G17" s="5">
+        <v>42112</v>
+      </c>
+      <c r="H17" s="8">
+        <v>20259</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="8">
+        <f>H17-B17</f>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="F19" s="8"/>
-      <c r="I19" s="4" t="s">
+      <c r="J19" s="3">
+        <f>SUM(J3:J17)</f>
+        <v>9354</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="F21" s="8"/>
+      <c r="I21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J21" s="8">
         <v>299</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="s">
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="12">
-        <v>41925</v>
-      </c>
-      <c r="J21" s="3">
-        <f>J17+J19*2</f>
-        <v>8555</v>
+      <c r="B23" s="12">
+        <v>42050</v>
+      </c>
+      <c r="J23" s="3">
+        <f>J19+J21*2</f>
+        <v>9952</v>
       </c>
     </row>
   </sheetData>
@@ -995,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1574,7 +1646,7 @@
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1">
       <c r="A21" s="4" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B21" s="4">
         <v>25</v>
@@ -1600,7 +1672,7 @@
         <v>25346.780821917808</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J21" s="9">
         <f t="shared" ref="J21:J22" si="4">H21-B21*1000</f>
@@ -1609,7 +1681,7 @@
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1">
       <c r="A22" s="4" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B22" s="4">
         <v>200</v>
@@ -1635,7 +1707,7 @@
         <v>202774.24657534246</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J22" s="9">
         <f t="shared" si="4"/>
@@ -1646,39 +1718,152 @@
       <c r="C23" s="5"/>
       <c r="F23" s="6"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="7"/>
+      <c r="H23" s="9"/>
+      <c r="I23"/>
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1">
-      <c r="F24" s="6"/>
-      <c r="J24" s="11">
-        <f>SUM(J3:J22)</f>
-        <v>10967.876712328758</v>
+      <c r="A24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="4">
+        <v>100</v>
+      </c>
+      <c r="C24" s="5">
+        <v>41992</v>
+      </c>
+      <c r="D24" s="4">
+        <v>7.75</v>
+      </c>
+      <c r="E24" s="4">
+        <v>61</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1401</v>
+      </c>
+      <c r="G24" s="5">
+        <v>42058</v>
+      </c>
+      <c r="H24" s="9">
+        <v>101401</v>
+      </c>
+      <c r="I24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" s="9">
+        <f>H24-B24*1000</f>
+        <v>1401</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1">
-      <c r="F25" s="6"/>
-      <c r="J25" s="9"/>
+      <c r="A25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="4">
+        <v>25</v>
+      </c>
+      <c r="C25" s="5">
+        <v>41992</v>
+      </c>
+      <c r="D25" s="4">
+        <v>7.75</v>
+      </c>
+      <c r="E25" s="4">
+        <v>61</v>
+      </c>
+      <c r="F25" s="6">
+        <v>372</v>
+      </c>
+      <c r="G25" s="5">
+        <v>42062</v>
+      </c>
+      <c r="H25" s="9">
+        <v>25372</v>
+      </c>
+      <c r="I25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" ref="J25:J26" si="5">H25-B25*1000</f>
+        <v>372</v>
+      </c>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1">
-      <c r="F26" s="6"/>
-      <c r="I26" s="4" t="s">
-        <v>16</v>
+      <c r="A26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="4">
+        <v>75</v>
+      </c>
+      <c r="C26" s="5">
+        <v>41992</v>
+      </c>
+      <c r="D26" s="4">
+        <v>7.75</v>
+      </c>
+      <c r="E26" s="4">
+        <v>61</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1067</v>
+      </c>
+      <c r="G26" s="5">
+        <v>42059</v>
+      </c>
+      <c r="H26" s="9">
+        <v>76067</v>
+      </c>
+      <c r="I26" t="s">
+        <v>43</v>
       </c>
       <c r="J26" s="9">
-        <v>1168</v>
+        <f t="shared" si="5"/>
+        <v>1067</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1">
+      <c r="C27" s="5"/>
       <c r="F27" s="6"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="7"/>
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" s="4" customFormat="1">
       <c r="F28" s="6"/>
       <c r="J28" s="11">
-        <f>J24 + J26*2</f>
-        <v>13303.876712328758</v>
+        <f>SUM(J3:J26)</f>
+        <v>13807.876712328758</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="4" customFormat="1">
+      <c r="F29" s="6"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="1:10" s="4" customFormat="1">
+      <c r="F30" s="6"/>
+      <c r="I30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="9">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="4" customFormat="1">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="12">
+        <v>42050</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="1:10" s="4" customFormat="1">
+      <c r="F32" s="6"/>
+      <c r="J32" s="11">
+        <f>J28 + J30*2</f>
+        <v>16143.876712328758</v>
       </c>
     </row>
   </sheetData>
@@ -1688,10 +1873,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1792,7 +1977,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1803,35 +1988,35 @@
         <v>25000</v>
       </c>
       <c r="C4" s="5">
-        <v>41947</v>
+        <v>41975</v>
       </c>
       <c r="D4" s="4">
-        <v>7.75</v>
+        <v>8.75</v>
       </c>
       <c r="E4" s="4">
-        <v>61</v>
+        <v>390</v>
       </c>
       <c r="F4" s="8">
-        <f xml:space="preserve"> ( ( (B4*D4/100) / 365 ) * E4 )</f>
-        <v>323.80136986301369</v>
+        <f>H4-B4</f>
+        <v>2424</v>
       </c>
       <c r="G4" s="5">
-        <v>42009</v>
-      </c>
-      <c r="H4" s="8">
-        <v>25000</v>
+        <v>42365</v>
+      </c>
+      <c r="H4" s="9">
+        <v>27424</v>
       </c>
       <c r="I4" s="4">
-        <v>4710072323</v>
+        <v>4713004066</v>
       </c>
       <c r="J4" s="8">
         <f>F4</f>
-        <v>323.80136986301369</v>
+        <v>2424</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1839,69 +2024,67 @@
         <v>40</v>
       </c>
       <c r="B5" s="4">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="C5" s="5">
-        <v>41975</v>
+        <v>42009</v>
       </c>
       <c r="D5" s="4">
-        <v>8.75</v>
+        <v>7</v>
       </c>
       <c r="E5" s="4">
-        <v>390</v>
+        <v>61</v>
       </c>
       <c r="F5" s="8">
-        <f>H5-B5</f>
-        <v>2424</v>
+        <f xml:space="preserve"> ( ( (B5*D5/100) / 365 ) * E5 )</f>
+        <v>584.93150684931504</v>
       </c>
       <c r="G5" s="5">
-        <v>42365</v>
-      </c>
-      <c r="H5" s="9">
-        <v>27424</v>
+        <v>42069</v>
+      </c>
+      <c r="H5" s="8">
+        <v>50000</v>
       </c>
       <c r="I5" s="4">
-        <v>4713004066</v>
+        <v>4710073233</v>
       </c>
       <c r="J5" s="8">
-        <f>F5</f>
-        <v>2424</v>
+        <v>329</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="J6" s="8"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="4"/>
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="8">
-        <f>J3+J5</f>
-        <v>4924</v>
-      </c>
+      <c r="J7" s="8"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -1909,36 +2092,55 @@
     <row r="8" spans="1:13">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="J8" s="8"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="4">
-        <v>744</v>
+      <c r="A9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="4">
+        <v>25000</v>
+      </c>
+      <c r="C9" s="5">
+        <v>41947</v>
+      </c>
+      <c r="D9" s="4">
+        <v>7.75</v>
+      </c>
+      <c r="E9" s="4">
+        <v>61</v>
+      </c>
+      <c r="F9" s="8">
+        <f xml:space="preserve"> ( ( (B9*D9/100) / 365 ) * E9 )</f>
+        <v>323.80136986301369</v>
+      </c>
+      <c r="G9" s="5">
+        <v>42009</v>
+      </c>
+      <c r="H9" s="8">
+        <v>25000</v>
+      </c>
+      <c r="I9" s="4">
+        <v>4710072323</v>
+      </c>
+      <c r="J9" s="8">
+        <v>329</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="M9" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="4"/>
@@ -1949,34 +2151,101 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" s="4">
-        <v>372</v>
-      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="8">
+        <f>SUM(J3:J9)</f>
+        <v>5582</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+    </row>
     <row r="12" spans="1:13">
-      <c r="J12" s="4">
-        <f>J9+J10</f>
-        <v>1116</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="4">
+        <v>744</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="J14" s="1">
-        <f xml:space="preserve"> J7 + J12*2</f>
-        <v>7156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="4">
+        <v>832</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="J16" s="4">
+        <f>J13+J14</f>
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="J18" s="1">
+        <f xml:space="preserve"> J11 + J16*2</f>
+        <v>8734</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="5">
-        <v>41994</v>
+      <c r="B21" s="5">
+        <v>42050</v>
       </c>
     </row>
   </sheetData>

--- a/int_sum.xlsx
+++ b/int_sum.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="51">
   <si>
     <t>bk</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>INT 2014 HY-2</t>
+  </si>
+  <si>
+    <t>2X0XX1506700</t>
+  </si>
+  <si>
+    <t>2X0XX1506900</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1076,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:B31"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1748,7 +1754,7 @@
         <v>101401</v>
       </c>
       <c r="I24" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J24" s="9">
         <f>H24-B24*1000</f>
@@ -1814,7 +1820,7 @@
         <v>76067</v>
       </c>
       <c r="I26" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J26" s="9">
         <f t="shared" si="5"/>
@@ -1876,7 +1882,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2020,52 +2026,31 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C5" s="5">
-        <v>42009</v>
-      </c>
-      <c r="D5" s="4">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4">
-        <v>61</v>
-      </c>
-      <c r="F5" s="8">
-        <f xml:space="preserve"> ( ( (B5*D5/100) / 365 ) * E5 )</f>
-        <v>584.93150684931504</v>
-      </c>
-      <c r="G5" s="5">
-        <v>42069</v>
-      </c>
-      <c r="H5" s="8">
-        <v>50000</v>
-      </c>
-      <c r="I5" s="4">
-        <v>4710073233</v>
-      </c>
-      <c r="J5" s="8">
-        <v>329</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="8"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="4"/>
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="8"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="8"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="4"/>
       <c r="J6" s="8"/>
       <c r="K6" s="4"/>
@@ -2073,9 +2058,7 @@
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="4"/>
@@ -2090,48 +2073,71 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="8"/>
+      <c r="A8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="4">
+        <v>25000</v>
+      </c>
+      <c r="C8" s="5">
+        <v>41947</v>
+      </c>
+      <c r="D8" s="4">
+        <v>7.75</v>
+      </c>
+      <c r="E8" s="4">
+        <v>61</v>
+      </c>
+      <c r="F8" s="8">
+        <f xml:space="preserve"> ( ( (B8*D8/100) / 365 ) * E8 )</f>
+        <v>323.80136986301369</v>
+      </c>
+      <c r="G8" s="5">
+        <v>42009</v>
+      </c>
+      <c r="H8" s="8">
+        <v>25000</v>
+      </c>
+      <c r="I8" s="4">
+        <v>4710072323</v>
+      </c>
+      <c r="J8" s="8">
+        <v>329</v>
+      </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="M8" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="4">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="C9" s="5">
-        <v>41947</v>
+        <v>42009</v>
       </c>
       <c r="D9" s="4">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="E9" s="4">
         <v>61</v>
       </c>
       <c r="F9" s="8">
         <f xml:space="preserve"> ( ( (B9*D9/100) / 365 ) * E9 )</f>
-        <v>323.80136986301369</v>
+        <v>584.93150684931504</v>
       </c>
       <c r="G9" s="5">
-        <v>42009</v>
+        <v>42069</v>
       </c>
       <c r="H9" s="8">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="I9" s="4">
-        <v>4710072323</v>
+        <v>4710073233</v>
       </c>
       <c r="J9" s="8">
         <v>329</v>
@@ -2168,8 +2174,8 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="8">
-        <f>SUM(J3:J9)</f>
-        <v>5582</v>
+        <f>SUM(J3:J8)</f>
+        <v>5253</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -2237,7 +2243,7 @@
     <row r="18" spans="1:10">
       <c r="J18" s="1">
         <f xml:space="preserve"> J11 + J16*2</f>
-        <v>8734</v>
+        <v>8405</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2245,7 +2251,7 @@
         <v>36</v>
       </c>
       <c r="B21" s="5">
-        <v>42050</v>
+        <v>42084</v>
       </c>
     </row>
   </sheetData>
